--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1907877.447992635</v>
+        <v>-1910460.480062363</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>100.4028078304859</v>
       </c>
       <c r="C2" t="n">
-        <v>12.27673055432646</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646377</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.4856996582649</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.24542900633083</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>54.41653174045924</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,10 +911,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>79.13824467254693</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.23776695828002</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>10.80487962572869</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>166.5901478022501</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>125.0247094438158</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>163.7703640731648</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>135.003354752076</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695612</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.34762173748807</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>158.2081142387118</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892414</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0.6452826062327198</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>21.90286287505493</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>77.93612009725592</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>89.43437620021329</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8180354051589</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>212.5602966632236</v>
+        <v>252.4188248364704</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149757</v>
+        <v>171.0385136149751</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316662</v>
+        <v>158.4533545316656</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512507</v>
+        <v>44.76793778823831</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796075</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559696</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253072</v>
+        <v>156.7306717253066</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792622</v>
+        <v>131.5012462792616</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160389</v>
+        <v>72.47236975160331</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014315946</v>
       </c>
       <c r="S28" t="n">
-        <v>172.232819434683</v>
+        <v>172.2328194346824</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.611983760326</v>
       </c>
       <c r="U28" t="n">
-        <v>174.2626255271678</v>
+        <v>277.3910078222819</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568664</v>
+        <v>243.3441767568658</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696294</v>
+        <v>277.7295317696288</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220755</v>
+        <v>216.9161888220749</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851332</v>
+        <v>209.7911867851326</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445524</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="C2" t="n">
-        <v>909.3697179459625</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D2" t="n">
-        <v>909.3697179459625</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>2832.360284105984</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>2663.424101178077</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>2663.424101178077</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>2663.424101178077</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>2663.424101178077</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>2495.721264552796</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>2495.721264552796</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068854</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459644</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181851</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181851</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181851</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877112</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U4" t="n">
-        <v>410.0175235133547</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V4" t="n">
-        <v>410.0175235133547</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="W4" t="n">
-        <v>410.0175235133547</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="X4" t="n">
-        <v>410.0175235133547</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.2249443698246</v>
+        <v>3014.008748936224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2675.869307912963</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2675.869307912963</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2675.869307912963</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4638,19 +4638,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.1280466398575</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C7" t="n">
-        <v>382.1280466398575</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398575</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4756,19 +4756,19 @@
         <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>688.2063705637426</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877109</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="X7" t="n">
-        <v>699.1203903877109</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.3278112441808</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3047.042276568338</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2694.273621298224</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X8" t="n">
-        <v>2320.807863037144</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4887,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.1049005553748</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877115</v>
+        <v>563.7765114700973</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877115</v>
+        <v>563.7765114700973</v>
       </c>
       <c r="V10" t="n">
-        <v>562.7533653856145</v>
+        <v>563.7765114700973</v>
       </c>
       <c r="W10" t="n">
-        <v>562.7533653856145</v>
+        <v>563.7765114700973</v>
       </c>
       <c r="X10" t="n">
-        <v>562.7533653856145</v>
+        <v>563.7765114700973</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.7533653856145</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.5507239167108</v>
+        <v>916.3099000622234</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888042</v>
+        <v>747.3737171343165</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
         <v>549.6145409888042</v>
@@ -5191,58 +5191,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S13" t="n">
-        <v>2220.111203833964</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="T13" t="n">
-        <v>2000.509738856905</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="U13" t="n">
-        <v>1711.434512201106</v>
+        <v>2090.842153176858</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.750023995219</v>
+        <v>1836.157664970971</v>
       </c>
       <c r="W13" t="n">
-        <v>1167.332853958258</v>
+        <v>1546.74049493401</v>
       </c>
       <c r="X13" t="n">
-        <v>939.3433030602409</v>
+        <v>1318.750944035993</v>
       </c>
       <c r="Y13" t="n">
-        <v>718.5507239167108</v>
+        <v>1097.958364892463</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400724</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121655</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121655</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121655</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>198.0274703142551</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>198.0274703142551</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703121</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5540,13 +5540,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368213</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244855</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279803</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898186995</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154066</v>
+        <v>803.864119183223</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778177</v>
+        <v>634.9279362553161</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654819</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830888</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1978.0544289167</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154066</v>
+        <v>985.5125840134627</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.868625753638</v>
+        <v>869.69050941353</v>
       </c>
       <c r="C25" t="n">
-        <v>705.932442825731</v>
+        <v>700.7543264856231</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133952</v>
+        <v>550.6376870732873</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310021</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6175,22 +6175,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1789.538274322278</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1789.538274322278</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.1315533873</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.33897424377</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,10 +6239,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1036.491134032485</v>
+        <v>663.4384611046138</v>
       </c>
       <c r="C28" t="n">
-        <v>876.4372405661552</v>
+        <v>503.3845676382849</v>
       </c>
       <c r="D28" t="n">
-        <v>735.2028906153969</v>
+        <v>458.1644284582462</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1720864945812</v>
+        <v>458.1644284582462</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582482</v>
+        <v>458.1644284582462</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347053</v>
+        <v>299.8506186347041</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384808</v>
+        <v>167.0210769384803</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795877</v>
+        <v>182.7582133795883</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064184</v>
+        <v>453.1530078064195</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836506</v>
+        <v>852.2571338836522</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515977</v>
+        <v>1282.972368515979</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077278</v>
+        <v>1709.08777207728</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687555</v>
+        <v>2087.322584687558</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162406</v>
+        <v>2388.703572162409</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790597</v>
+        <v>2516.607338790601</v>
       </c>
       <c r="R28" t="n">
-        <v>2516.607338790597</v>
+        <v>2458.443924504581</v>
       </c>
       <c r="S28" t="n">
-        <v>2342.634793907079</v>
+        <v>2284.471379621064</v>
       </c>
       <c r="T28" t="n">
-        <v>2342.634793907079</v>
+        <v>2073.752204105583</v>
       </c>
       <c r="U28" t="n">
-        <v>2166.611939839232</v>
+        <v>1793.559266911359</v>
       </c>
       <c r="V28" t="n">
-        <v>1920.809741094923</v>
+        <v>1547.75706816705</v>
       </c>
       <c r="W28" t="n">
-        <v>1640.27486051954</v>
+        <v>1267.222187591667</v>
       </c>
       <c r="X28" t="n">
-        <v>1421.1675990831</v>
+        <v>1048.114926155228</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.257309401147</v>
+        <v>836.2046364732755</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,31 +6479,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6655,16 +6655,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6692,46 +6692,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,22 +6838,22 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,19 +6883,19 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6923,28 +6923,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,31 +6953,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7108,19 +7108,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,10 +7318,10 @@
         <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,19 +7810,19 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>282.3310338329946</v>
       </c>
       <c r="C2" t="n">
-        <v>352.9961612166811</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.34628052367236</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>72.10699140350729</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>99.26785128072429</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.81817176293279</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.1866975757046</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.3918499711689</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>68.49784254931325</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>77.81244489841454</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.5874149221293552</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>73.62417772602058</v>
+        <v>33.76564955277378</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>95.05406866301183</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796069</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.627581455969</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014316002</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603266</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.1283822951148</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1325641.935691544</v>
+        <v>1325641.935691543</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1325641.935691544</v>
+        <v>1325641.935691543</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82260.24434218735</v>
+        <v>82260.24434218733</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,28 +26323,28 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612507</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>101522.2547944396</v>
+        <v>101522.2547944397</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.765727120073279e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508467</v>
+        <v>224565.9756508472</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006246</v>
+        <v>12392.94474006202</v>
       </c>
       <c r="L3" t="n">
-        <v>1.438655772290076e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569309</v>
+        <v>7034.773253569758</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006247</v>
+        <v>12392.94474006206</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26433,31 +26433,31 @@
         <v>14826.69604186732</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>17720.18476944066</v>
+        <v>17720.18476944085</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496081</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496081</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496081</v>
       </c>
       <c r="N4" t="n">
         <v>22817.55530496079</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496081</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101861.787764725</v>
+        <v>101861.7877647251</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1355003.088935805</v>
+        <v>-1355410.488473621</v>
       </c>
       <c r="C6" t="n">
         <v>-98900.46343241044</v>
       </c>
       <c r="D6" t="n">
-        <v>-98900.46343241056</v>
+        <v>-98900.46343241048</v>
       </c>
       <c r="E6" t="n">
-        <v>-340468.3627118788</v>
+        <v>-340503.1006373146</v>
       </c>
       <c r="F6" t="n">
-        <v>-15055.90090452373</v>
+        <v>-15090.63882995937</v>
       </c>
       <c r="G6" t="n">
-        <v>-15055.9009045237</v>
+        <v>-15090.63882995941</v>
       </c>
       <c r="H6" t="n">
-        <v>-15055.9009045237</v>
+        <v>-15090.63882995944</v>
       </c>
       <c r="I6" t="n">
-        <v>-15055.90090452367</v>
+        <v>-15090.63882995938</v>
       </c>
       <c r="J6" t="n">
-        <v>-242625.6933905728</v>
+        <v>-242647.8527193454</v>
       </c>
       <c r="K6" t="n">
-        <v>-35744.39466590324</v>
+        <v>-35744.39466590277</v>
       </c>
       <c r="L6" t="n">
-        <v>-23351.44992584095</v>
+        <v>-23351.4499258408</v>
       </c>
       <c r="M6" t="n">
         <v>-108406.4778613526</v>
       </c>
       <c r="N6" t="n">
-        <v>-23351.44992584079</v>
+        <v>-23351.44992584076</v>
       </c>
       <c r="O6" t="n">
-        <v>-30386.2231794101</v>
+        <v>-30386.22317941055</v>
       </c>
       <c r="P6" t="n">
-        <v>-35744.39466590327</v>
+        <v>-35744.39466590282</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26805,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507808</v>
+        <v>15.49118092507752</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961635</v>
+        <v>8.793466566962197</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507809</v>
+        <v>15.49118092507758</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507808</v>
+        <v>15.49118092507752</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>328.3173099230214</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>248.614013797588</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.59421322365728</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>275.4069585798842</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>161.1621106678848</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>224.2162592735972</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>55.77858520300441</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>117.134288571752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.557513963650944e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-9.83188879184554e-13</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961632</v>
+        <v>8.793466566962218</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3420541567482</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312099</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328822</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>360.3952288121454</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2352659288684</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>704.1404939038093</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>500.4415752611932</v>
       </c>
       <c r="P33" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043726</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>351.608251103502</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>616.375287159485</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O42" t="n">
-        <v>567.7870775946146</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34387,10 +34387,10 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>567.7870775946146</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>97.00034207341486</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066228</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867654</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>191.3582339884378</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5537898377864</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>68.26085851453816</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>572.7987818204761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991504</v>
+        <v>89.83994982991558</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765967</v>
+        <v>273.1260549765972</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860931</v>
+        <v>403.1354808860937</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680068</v>
+        <v>435.0658935680073</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568691</v>
+        <v>430.4195995568696</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730071</v>
+        <v>382.0553662730076</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735866</v>
+        <v>304.4252398735871</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.19572386686</v>
+        <v>129.1957238668606</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>357.8453308167487</v>
       </c>
       <c r="P33" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,19 +37391,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>217.6338436891718</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016747</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>473.7790427150405</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O42" t="n">
-        <v>425.1908331501702</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,10 +38035,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>425.1908331501702</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
